--- a/xlsxdata/TransparentRed.xlsx
+++ b/xlsxdata/TransparentRed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HalliwellM\Documents\dnd\Dice Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HalliwellM\Documents\dnd\Dice Data\3d-die-heatmap\xlsxdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97887300-A34E-4D7E-8837-2AA3F3746807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2FE0C1-0E7B-4DB0-9938-DDE8CEFE1613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,28 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7602,8 +7580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296:A314"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7772,32 +7750,32 @@
       <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" cm="1">
-        <f t="array" ref="L4">_xlfn.MODE.MULT(B11:B1010)</f>
+      <c r="L4" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,_xlfn.MODE.MULT(B11:B1010))</f>
         <v>7</v>
       </c>
-      <c r="M4" s="2" cm="1">
-        <f t="array" ref="M4">_xlfn.MODE.MULT(C11:C1010)</f>
+      <c r="M4" s="3" t="str">
+        <f t="shared" ref="M4:R4" si="2">_xlfn.TEXTJOIN(",",FALSE,_xlfn.MODE.MULT(C11:C1010))</f>
         <v>6</v>
       </c>
-      <c r="N4" s="3" cm="1">
-        <f t="array" ref="N4">_xlfn.MODE.MULT(D11:D1010)</f>
+      <c r="N4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O4" s="2" cm="1">
-        <f t="array" ref="O4">_xlfn.MODE.MULT(E11:E1010)</f>
+      <c r="O4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P4" s="3" cm="1">
-        <f t="array" ref="P4">_xlfn.MODE.MULT(F11:F1010)</f>
+      <c r="P4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q4" s="2" cm="1">
-        <f t="array" ref="Q4">_xlfn.MODE.MULT(G11:G1010)</f>
+      <c r="Q4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R4" s="3" cm="1">
-        <f t="array" ref="R4">_xlfn.MODE.MULT(H11:H1010)</f>
+      <c r="R4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7810,7 +7788,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:H5" si="2">COUNTIF(C11:C1010,C2)</f>
+        <f t="shared" ref="C5:H5" si="3">COUNTIF(C11:C1010,C2)</f>
         <v>9</v>
       </c>
       <c r="D5" s="3">
@@ -7818,19 +7796,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
@@ -7843,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:H6" si="3">COUNTIF(C11:C1010,1)</f>
+        <f t="shared" ref="C6:H6" si="4">COUNTIF(C11:C1010,1)</f>
         <v>9</v>
       </c>
       <c r="D6" s="3">
@@ -7851,19 +7829,19 @@
         <v>8</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -7921,7 +7899,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:H7" si="4">C10/C2</f>
+        <f t="shared" ref="C7:H7" si="5">C10/C2</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="D7" s="3">
@@ -7929,19 +7907,19 @@
         <v>10</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.666666666666668</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K7" s="1">
@@ -8144,7 +8122,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:H10" si="5">COUNT(C11:C110)</f>
+        <f t="shared" ref="C10:H10" si="6">COUNT(C11:C110)</f>
         <v>100</v>
       </c>
       <c r="D10" s="3">
@@ -8152,19 +8130,19 @@
         <v>100</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="K10" s="1">
